--- a/testData/login_test_data.xlsx
+++ b/testData/login_test_data.xlsx
@@ -1,105 +1,353 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="default" sheetId="1" r:id="rId1"/>
+    <sheet name="ad" sheetId="2" r:id="rId2"/>
+    <sheet name="pwd_ad" sheetId="3" r:id="rId3"/>
+    <sheet name="radius" sheetId="4" r:id="rId4"/>
+    <sheet name="cert" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">0：用户名+口令（默认方式）
-1：AD域认证
-2：AD域认证加口令
-3：radius动态令牌
-4：radius动态令牌+口令
-5：数字证书
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
+  <si>
+    <t>登陆方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hH@1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您已连续登录失败超过指定次数，账号已被锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或口令错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有绑定AD认证方式的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态口令不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有绑定radius认证的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hH@1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号和密码均为空的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装证书的用户能够正常登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius口令为空校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域口令为空校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写错误域口令的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写错误radius口令的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定AD域+口令认证方式的用户能够正常登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定AD域认证方式的用户能够正常登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数达到最大校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域口令不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_checkout_005</t>
+  </si>
+  <si>
+    <t>test_F01_accessTimes_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ADlogin_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ADcheckout_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_radiuscheckout_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ADPwdlogin_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_certLogin_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化用户能够正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新添加的用户能够正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于锁定状态的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号未生效的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已过期的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填写账号校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号已锁定，请找管理员解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号未生效,生效时间：2020-09-08 17:21:31.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或口令错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填写密码校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_accountlock_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ineffective _003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_outOfDate_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_checkout_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isomper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>ccc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登陆时输入新添加的用户和口令能够正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录时输入不存在账号或口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆时输入初始化用户能够正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isomper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号或口令错误</t>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccccccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数达到最大(第一次登录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数达到最大(第二次登录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_accessTimes_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或口令错误，您还剩1次机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或口令错误，您还剩2次机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,18 +364,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -144,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -171,6 +428,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -178,13 +457,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -197,15 +493,58 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -263,7 +602,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,10 +634,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,7 +668,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,233 +843,917 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="1" max="2" width="57.625" customWidth="1"/>
     <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B2" s="16"/>
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="D5" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1111</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1111</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41.75" customWidth="1"/>
+    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="hH@1234"/>
+    <hyperlink ref="F5" r:id="rId2" display="hH@1234"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="63" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="36.25" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="35.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="37.125" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testData/login_test_data.xlsx
+++ b/testData/login_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="pwd_ad" sheetId="3" r:id="rId3"/>
     <sheet name="radius" sheetId="4" r:id="rId4"/>
     <sheet name="cert" sheetId="5" r:id="rId5"/>
+    <sheet name="test" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
   <si>
     <t>登陆方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,286 +61,282 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>账号或口令错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有绑定AD认证方式的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态口令不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有绑定radius认证的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hH@1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号和密码均为空的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装证书的用户能够正常登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius口令为空校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域口令为空校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写错误域口令的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写错误radius口令的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定AD域+口令认证方式的用户能够正常登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定AD域认证方式的用户能够正常登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数达到最大校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域口令不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_checkout_005</t>
+  </si>
+  <si>
+    <t>test_F01_accessTimes_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ADlogin_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ADcheckout_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_radiuscheckout_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ADPwdlogin_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_certLogin_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化用户能够正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新添加的用户能够正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于锁定状态的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号未生效的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已过期的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填写账号校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号已锁定，请找管理员解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号未生效,生效时间：2020-09-08 17:21:31.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或口令错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填写密码校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_accountlock_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ineffective _003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_outOfDate_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_checkout_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isomper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccccccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数达到最大(第一次登录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数达到最大(第二次登录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_accessTimes_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或口令错误，您还剩1次机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或口令错误，您还剩2次机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账号或口令错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有绑定AD认证方式的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态口令不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有绑定radius认证的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hH@1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码错误的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号和密码均为空的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装证书的用户能够正常登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius口令为空校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域口令为空校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写错误域口令的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写错误radius口令的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定AD域+口令认证方式的用户能够正常登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定AD域认证方式的用户能够正常登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问失败次数达到最大校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域口令不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_checkout_005</t>
-  </si>
-  <si>
-    <t>test_F01_accessTimes_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_ADlogin_007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_ADcheckout_009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_radiuscheckout_010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_ADPwdlogin_008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_certLogin_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化用户能够正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新添加的用户能够正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处于锁定状态的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号未生效的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已过期的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不存在的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不填写账号校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号已锁定，请找管理员解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号未生效,生效时间：2020-09-08 17:21:31.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号或口令错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不填写密码校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_login_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_login_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_accountlock_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_ineffective _003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_outOfDate_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_checkout_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isomper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccccccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问失败次数达到最大(第一次登录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问失败次数达到最大(第二次登录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_accessTimes_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号或口令错误，您还剩1次机会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号或口令错误，您还剩2次机会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad1</t>
+    <t>18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -874,113 +871,113 @@
         <v>2</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="19">
         <v>1111</v>
@@ -989,124 +986,124 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="7">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="19">
         <v>1111</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="15"/>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>9</v>
@@ -1115,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E14" s="7">
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1200,7 +1197,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1233,26 +1230,26 @@
         <v>6</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1451,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1486,19 +1483,19 @@
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -1507,18 +1504,18 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1528,44 +1525,44 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1574,7 +1571,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +1589,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1620,75 +1617,75 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>73</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1699,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1732,12 +1729,12 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1749,11 +1746,77 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="29.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="hH@1234"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/login_test_data.xlsx
+++ b/testData/login_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="radius" sheetId="4" r:id="rId4"/>
     <sheet name="cert" sheetId="5" r:id="rId5"/>
     <sheet name="test" sheetId="6" r:id="rId6"/>
+    <sheet name="add_user" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
   <si>
     <t>登陆方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已过期的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不存在的用户无法登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,131 +210,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>账号或口令错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填写密码校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_accountlock_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ineffective _003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_checkout_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isomper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccccccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数达到最大(第一次登录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数达到最大(第二次登录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_accessTimes_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或口令错误，您还剩1次机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或口令错误，您还剩2次机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD域账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>账号未生效,生效时间：2020-09-08 17:21:31.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账号或口令错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不填写密码校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_login_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_login_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_accountlock_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_ineffective _003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_outOfDate_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_checkout_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isomper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccccccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问失败次数达到最大(第一次登录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问失败次数达到最大(第二次登录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_accessTimes_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号或口令错误，您还剩1次机会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号或口令错误，您还剩2次机会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
+    <t>2020-09-08 17:21:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +503,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,6 +563,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -841,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -883,13 +912,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -900,13 +929,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -914,19 +943,19 @@
         <v>42</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -934,19 +963,19 @@
         <v>43</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -959,14 +988,14 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
+      <c r="D6" s="19">
+        <v>1111</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -974,24 +1003,22 @@
         <v>45</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="19">
-        <v>1111</v>
-      </c>
+      <c r="D7" s="18"/>
       <c r="E7" s="7">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>50</v>
@@ -999,127 +1026,117 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
+      <c r="D8" s="19">
+        <v>1111</v>
+      </c>
+      <c r="E8" s="15"/>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="19">
-        <v>1111</v>
-      </c>
+      <c r="D9" s="18"/>
       <c r="E9" s="15"/>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>78</v>
-      </c>
       <c r="E13" s="7">
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1"/>
@@ -1176,14 +1193,6 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1495,7 +1504,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -1539,13 +1548,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>36</v>
@@ -1562,7 +1571,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1589,7 +1598,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1631,13 +1640,13 @@
         <v>13</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -1649,17 +1658,17 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>37</v>
@@ -1673,16 +1682,16 @@
         <v>10</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>37</v>
@@ -1803,13 +1812,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1819,4 +1828,268 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="28.625" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/login_test_data.xlsx
+++ b/testData/login_test_data.xlsx
@@ -12,16 +12,15 @@
     <sheet name="pwd_ad" sheetId="3" r:id="rId3"/>
     <sheet name="radius" sheetId="4" r:id="rId4"/>
     <sheet name="cert" sheetId="5" r:id="rId5"/>
-    <sheet name="test" sheetId="6" r:id="rId6"/>
-    <sheet name="add_user" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="add_user" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="86">
   <si>
     <t>登陆方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1766,75 +1765,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="29.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="hH@1234"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1989,12 +1922,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/testData/login_test_data.xlsx
+++ b/testData/login_test_data.xlsx
@@ -4,60 +4,30 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
     <sheet name="ad" sheetId="2" r:id="rId2"/>
     <sheet name="pwd_ad" sheetId="3" r:id="rId3"/>
     <sheet name="radius" sheetId="4" r:id="rId4"/>
-    <sheet name="cert" sheetId="5" r:id="rId5"/>
-    <sheet name="add_user" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="add_user" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="86">
-  <si>
-    <t>登陆方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
   <si>
     <t>ad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>域口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hH@1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>您已连续登录失败超过指定次数，账号已被锁定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>radius口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>没有绑定radius认证的用户无法登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,14 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装证书的用户能够正常登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>radius口令为空校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_F01_certLogin_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初始化用户能够正常登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,34 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD域账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>账号未生效,生效时间：2020-09-08 17:21:31.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,6 +288,70 @@
   </si>
   <si>
     <t>lc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证方式5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD域账号6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius口令5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域口令5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,6 +388,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -423,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -492,6 +483,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -502,7 +506,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,9 +537,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -563,8 +564,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -869,264 +870,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="57.625" customWidth="1"/>
+    <col min="1" max="1" width="40.375" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>20</v>
+        <v>79</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1111</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="19">
-        <v>1111</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="7">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>1111</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="B9" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="16" t="s">
         <v>10</v>
       </c>
+      <c r="B10" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>60</v>
+      <c r="D10" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="E10" s="7">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>74</v>
+      <c r="D11" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>74</v>
+      <c r="D12" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>74</v>
+      <c r="D13" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1136,62 +1140,6 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1202,15 +1150,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="41.75" customWidth="1"/>
+    <col min="1" max="1" width="33.625" customWidth="1"/>
     <col min="2" max="2" width="42.25" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
@@ -1220,235 +1168,206 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>21</v>
+        <v>81</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="11" t="s">
-        <v>17</v>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="hH@1234"/>
-    <hyperlink ref="F5" r:id="rId2" display="hH@1234"/>
-    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1457,14 +1376,14 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="63" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="1" max="1" width="39.25" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="6.625" customWidth="1"/>
     <col min="6" max="6" width="16.125" customWidth="1"/>
@@ -1473,113 +1392,113 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1597,103 +1516,104 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="36.25" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
     <col min="7" max="7" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>65</v>
+      <c r="D2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>67</v>
+      <c r="D4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1704,71 +1624,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="32.375" customWidth="1"/>
-    <col min="2" max="2" width="37.125" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="22.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1779,140 +1638,150 @@
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="23.375" customWidth="1"/>
     <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>82</v>
+      <c r="A1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
-        <v>85</v>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
-        <v>85</v>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1920,109 +1789,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="28.625" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="7">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testData/login_test_data.xlsx
+++ b/testData/login_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hH@1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,6 +348,10 @@
   </si>
   <si>
     <t>检查点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -872,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -888,105 +888,105 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="F1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -998,15 +998,15 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1016,15 +1016,15 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1034,12 +1034,12 @@
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>4</v>
@@ -1050,12 +1050,12 @@
       <c r="D9" s="17"/>
       <c r="E9" s="14"/>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>3</v>
@@ -1064,58 +1064,58 @@
         <v>2</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="7">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="7">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>2</v>
@@ -1124,13 +1124,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1152,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1168,44 +1168,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1376,7 +1376,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1392,37 +1392,37 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -1431,15 +1431,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -1452,12 +1452,12 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1466,16 +1466,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1489,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1530,67 +1530,67 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1601,19 +1601,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="F4" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1643,33 +1643,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -1725,10 +1725,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1760,15 +1760,15 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/testData/login_test_data.xlsx
+++ b/testData/login_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t>ad</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,7 +351,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad2</t>
+    <t>gyrlogin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrlogin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrlogin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrlogin4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrloginad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrloginad1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -873,7 +893,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -915,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -952,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -972,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1084,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -1104,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
@@ -1124,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
@@ -1152,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1198,7 +1218,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="10" t="s">
@@ -1375,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1422,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
